--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The Infectious Disease profile sets minimum expectations for the Observation Resource to record, important information about an Infections Disease associated with an Ill Traveler</t>
+    <t>The Infectious Disease profile sets minimum expectations for the Observation Resource to record, important information about an Infectious Disease associated with an Ill Traveler</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -470,6 +470,22 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>Condition.extension:symptoms</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/symptom}
+</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Symptoms present in Traveler</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -1518,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2775,11 +2791,13 @@
         <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2789,29 +2807,25 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2859,7 +2873,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2868,7 +2882,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2883,7 +2897,7 @@
         <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>76</v>
@@ -2894,14 +2908,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2914,25 +2928,25 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2981,7 +2995,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2993,10 +3007,10 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -3005,10 +3019,10 @@
         <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>76</v>
@@ -3016,10 +3030,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3030,30 +3044,32 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3077,13 +3093,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3101,34 +3117,34 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>76</v>
@@ -3136,10 +3152,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3162,16 +3178,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3197,31 +3213,31 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3230,36 +3246,36 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3270,28 +3286,28 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3317,13 +3333,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3341,45 +3357,45 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3390,7 +3406,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3402,16 +3418,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3437,13 +3453,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3461,13 +3477,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3479,31 +3495,31 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3519,21 +3535,21 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3557,13 +3573,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3581,7 +3597,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3596,41 +3612,41 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3642,18 +3658,18 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3677,37 +3693,37 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3716,41 +3732,41 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3762,18 +3778,18 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3797,13 +3813,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3821,13 +3837,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3836,38 +3852,38 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -3882,18 +3898,18 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3941,10 +3957,10 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
@@ -3956,19 +3972,19 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>76</v>
@@ -3976,10 +3992,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4002,16 +4018,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4061,7 +4077,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4076,19 +4092,19 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>76</v>
@@ -4096,10 +4112,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4119,19 +4135,19 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4181,7 +4197,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4190,25 +4206,25 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>76</v>
@@ -4216,10 +4232,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4239,18 +4255,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4299,7 +4317,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4308,7 +4326,7 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>100</v>
@@ -4320,13 +4338,13 @@
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>76</v>
@@ -4334,10 +4352,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4360,13 +4378,13 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4417,7 +4435,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4438,13 +4456,13 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>76</v>
@@ -4452,10 +4470,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4478,7 +4496,7 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>279</v>
@@ -4535,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4556,13 +4574,13 @@
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>76</v>
@@ -4570,10 +4588,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4584,7 +4602,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4593,16 +4611,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4653,34 +4671,34 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>76</v>
@@ -4688,10 +4706,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4702,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4714,13 +4732,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4771,31 +4789,31 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -4806,21 +4824,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4832,7 +4850,7 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>297</v>
@@ -4840,9 +4858,7 @@
       <c r="M28" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4897,13 +4913,13 @@
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4915,7 +4931,7 @@
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -4926,14 +4942,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4946,10 +4962,10 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>133</v>
@@ -4961,11 +4977,9 @@
         <v>303</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5037,7 +5051,7 @@
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>76</v>
@@ -5055,35 +5069,39 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5107,55 +5125,55 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5166,10 +5184,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5180,7 +5198,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5192,13 +5210,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5225,13 +5243,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -5249,16 +5267,16 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
@@ -5267,13 +5285,13 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>76</v>
@@ -5298,7 +5316,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5310,13 +5328,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5343,13 +5361,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5373,10 +5391,10 @@
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
@@ -5391,7 +5409,7 @@
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>76</v>
@@ -5402,10 +5420,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5416,7 +5434,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5428,17 +5446,15 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5463,53 +5479,55 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>76</v>
@@ -5520,10 +5538,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5534,7 +5552,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5546,15 +5564,17 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5591,31 +5611,29 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5627,7 +5645,7 @@
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5638,21 +5656,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5664,7 +5682,7 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>297</v>
@@ -5672,9 +5690,7 @@
       <c r="M35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5729,13 +5745,13 @@
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5747,7 +5763,7 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -5758,14 +5774,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5778,10 +5794,10 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>133</v>
@@ -5793,11 +5809,9 @@
         <v>303</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5869,7 +5883,7 @@
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>76</v>
@@ -5880,14 +5894,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5900,22 +5914,26 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5939,13 +5957,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5963,7 +5981,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5972,25 +5990,25 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>76</v>
@@ -5998,10 +6016,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6024,13 +6042,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6057,13 +6075,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6081,7 +6099,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6090,25 +6108,25 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>76</v>
@@ -6116,14 +6134,12 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C39" t="s" s="2">
         <v>347</v>
       </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6132,7 +6148,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6141,20 +6157,18 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6203,7 +6217,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6212,10 +6226,10 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6227,10 +6241,10 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>76</v>
@@ -6238,12 +6252,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6264,15 +6280,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6321,19 +6339,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6345,7 +6363,7 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>76</v>
@@ -6356,10 +6374,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6370,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6382,13 +6400,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6427,14 +6445,16 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>299</v>
@@ -6443,13 +6463,13 @@
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6461,7 +6481,7 @@
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6472,14 +6492,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6488,7 +6506,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6500,13 +6518,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6545,19 +6563,17 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6566,7 +6582,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>139</v>
@@ -6595,43 +6611,41 @@
         <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6688,7 +6702,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>139</v>
@@ -6703,7 +6717,7 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6714,14 +6728,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6734,22 +6748,26 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6773,11 +6791,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6795,7 +6815,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6804,25 +6824,25 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>76</v>
@@ -6830,10 +6850,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6856,13 +6876,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6889,13 +6909,11 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6913,7 +6931,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6922,25 +6940,25 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>76</v>
@@ -6948,14 +6966,12 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6964,7 +6980,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6973,20 +6989,18 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7035,7 +7049,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7044,10 +7058,10 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -7059,10 +7073,10 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>76</v>
@@ -7070,12 +7084,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7096,15 +7112,17 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7153,19 +7171,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7177,7 +7195,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7188,10 +7206,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7202,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7214,13 +7232,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7259,14 +7277,16 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>299</v>
@@ -7275,13 +7295,13 @@
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7293,7 +7313,7 @@
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>76</v>
@@ -7304,14 +7324,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7320,7 +7338,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7332,13 +7350,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
+        <v>135</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7377,19 +7395,17 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7398,7 +7414,7 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>139</v>
@@ -7427,43 +7443,41 @@
         <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7520,7 +7534,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>139</v>
@@ -7535,7 +7549,7 @@
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7546,14 +7560,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7566,22 +7580,26 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7605,11 +7623,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7627,7 +7647,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7636,25 +7656,25 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>76</v>
@@ -7662,10 +7682,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7688,13 +7708,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7721,13 +7741,11 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7745,7 +7763,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7754,25 +7772,25 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>76</v>
@@ -7780,10 +7798,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7803,16 +7821,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7863,7 +7881,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7872,32 +7890,150 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="B54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AO53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AP53" t="s" s="2">
+      <c r="L54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7907,7 +8043,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-InfectiousDisease.xlsx
+++ b/StructureDefinition-InfectiousDisease.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
